--- a/WayGame/jiang/parsheet/fgparsheet.xlsx
+++ b/WayGame/jiang/parsheet/fgparsheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terry_hsiesh/go/game/GameModule/parsheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terry_hsiesh/Slot/WayGame/jiang/parsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0647E5FD-FA4C-6242-B60B-4D369C5F8D1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB72EFE-92BC-1346-B096-52E79D8984F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37580" yWindow="460" windowWidth="17720" windowHeight="21140" activeTab="2" xr2:uid="{13BB5AA7-1582-6F4B-9695-E5E1C1D8F7F8}"/>
+    <workbookView xWindow="-37580" yWindow="460" windowWidth="18080" windowHeight="21140" xr2:uid="{13BB5AA7-1582-6F4B-9695-E5E1C1D8F7F8}"/>
   </bookViews>
   <sheets>
     <sheet name="rtp965" sheetId="1" r:id="rId1"/>
@@ -1703,8 +1703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C679CF-C273-9E4F-9759-41197508142A}">
   <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4110,7 +4110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0C62DE-0978-4E40-ABD2-53F5D6C7EEEC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
